--- a/Báo cáo/2_LONG XUYÊN/Danh sách khách hàng/Danh sách khách hàng còn dư nợ tại LONG XUYÊN.xlsx
+++ b/Báo cáo/2_LONG XUYÊN/Danh sách khách hàng/Danh sách khách hàng còn dư nợ tại LONG XUYÊN.xlsx
@@ -891,8 +891,10 @@
       <c r="E12" t="n">
         <v/>
       </c>
-      <c r="F12" t="n">
-        <v/>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>0939287844</t>
+        </is>
       </c>
       <c r="G12" t="n">
         <v/>
@@ -901,10 +903,10 @@
         <v/>
       </c>
       <c r="I12" t="n">
-        <v>2500000</v>
+        <v>5500000</v>
       </c>
       <c r="J12" t="n">
-        <v>2000000</v>
+        <v>3000000</v>
       </c>
     </row>
     <row r="13">

--- a/Báo cáo/2_LONG XUYÊN/Danh sách khách hàng/Danh sách khách hàng còn dư nợ tại LONG XUYÊN.xlsx
+++ b/Báo cáo/2_LONG XUYÊN/Danh sách khách hàng/Danh sách khách hàng còn dư nợ tại LONG XUYÊN.xlsx
@@ -507,7 +507,7 @@
         <v/>
       </c>
       <c r="I2" t="n">
-        <v>1000000</v>
+        <v>3000000</v>
       </c>
       <c r="J2" t="n">
         <v>2000000</v>

--- a/Báo cáo/2_LONG XUYÊN/Danh sách khách hàng/Danh sách khách hàng còn dư nợ tại LONG XUYÊN.xlsx
+++ b/Báo cáo/2_LONG XUYÊN/Danh sách khách hàng/Danh sách khách hàng còn dư nợ tại LONG XUYÊN.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J23"/>
+  <dimension ref="A1:J19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -480,11 +480,11 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>371</v>
+        <v>432</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Chị vui</t>
+          <t>Ngọc diễm</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -497,7 +497,7 @@
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>094990449</t>
+          <t>0989211191</t>
         </is>
       </c>
       <c r="G2" t="n">
@@ -510,7 +510,7 @@
         <v>3000000</v>
       </c>
       <c r="J2" t="n">
-        <v>2000000</v>
+        <v>3000000</v>
       </c>
     </row>
     <row r="3">
@@ -520,11 +520,11 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>340</v>
+        <v>426</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Huỳnh thị bé sáu</t>
+          <t>Trương thị kiều</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -537,7 +537,7 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>0912122976</t>
+          <t>0868375152</t>
         </is>
       </c>
       <c r="G3" t="n">
@@ -547,10 +547,10 @@
         <v/>
       </c>
       <c r="I3" t="n">
-        <v>9000000</v>
+        <v>20000000</v>
       </c>
       <c r="J3" t="n">
-        <v>2500000</v>
+        <v>40500000</v>
       </c>
     </row>
     <row r="4">
@@ -560,11 +560,11 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>291</v>
+        <v>340</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Mai thị nương</t>
+          <t>Huỳnh thị bé sáu</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -577,7 +577,7 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>0975352074</t>
+          <t>0912122976</t>
         </is>
       </c>
       <c r="G4" t="n">
@@ -587,10 +587,10 @@
         <v/>
       </c>
       <c r="I4" t="n">
-        <v>1500000</v>
+        <v>9000000</v>
       </c>
       <c r="J4" t="n">
-        <v>1500000</v>
+        <v>2500000</v>
       </c>
     </row>
     <row r="5">
@@ -600,11 +600,11 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>269</v>
+        <v>291</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Võ thị nga</t>
+          <t>Mai thị nương</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
@@ -617,7 +617,7 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>0768862580</t>
+          <t>0975352074</t>
         </is>
       </c>
       <c r="G5" t="n">
@@ -627,10 +627,10 @@
         <v/>
       </c>
       <c r="I5" t="n">
-        <v>5800000</v>
+        <v>1500000</v>
       </c>
       <c r="J5" t="n">
-        <v>1700000</v>
+        <v>1500000</v>
       </c>
     </row>
     <row r="6">
@@ -640,11 +640,11 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>244</v>
+        <v>269</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Em gấm</t>
+          <t>Võ thị nga</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
@@ -657,7 +657,7 @@
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>0764666615</t>
+          <t>0768862580</t>
         </is>
       </c>
       <c r="G6" t="n">
@@ -667,10 +667,10 @@
         <v/>
       </c>
       <c r="I6" t="n">
-        <v>10000000</v>
+        <v>7000000</v>
       </c>
       <c r="J6" t="n">
-        <v>15000000</v>
+        <v>500000</v>
       </c>
     </row>
     <row r="7">
@@ -680,11 +680,11 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>213</v>
+        <v>244</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Chị Tâm</t>
+          <t>Em gấm</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
@@ -697,7 +697,7 @@
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>0396237229</t>
+          <t>0764666615</t>
         </is>
       </c>
       <c r="G7" t="n">
@@ -707,10 +707,10 @@
         <v/>
       </c>
       <c r="I7" t="n">
-        <v>4000000</v>
+        <v>18000000</v>
       </c>
       <c r="J7" t="n">
-        <v>2000000</v>
+        <v>7000000</v>
       </c>
     </row>
     <row r="8">
@@ -787,10 +787,10 @@
         <v/>
       </c>
       <c r="I9" t="n">
-        <v>1000000</v>
+        <v>1800000</v>
       </c>
       <c r="J9" t="n">
-        <v>1300000</v>
+        <v>500000</v>
       </c>
     </row>
     <row r="10">
@@ -800,11 +800,11 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>199</v>
+        <v>164</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Em Như + Mẹ</t>
+          <t>Cô phương</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
@@ -825,10 +825,10 @@
         <v/>
       </c>
       <c r="I10" t="n">
-        <v>53000000</v>
+        <v>2000000</v>
       </c>
       <c r="J10" t="n">
-        <v>7000000</v>
+        <v>500000</v>
       </c>
     </row>
     <row r="11">
@@ -838,11 +838,11 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Cô phương</t>
+          <t>Cô tú</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
@@ -853,8 +853,10 @@
       <c r="E11" t="n">
         <v/>
       </c>
-      <c r="F11" t="n">
-        <v/>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>0939287844</t>
+        </is>
       </c>
       <c r="G11" t="n">
         <v/>
@@ -863,10 +865,10 @@
         <v/>
       </c>
       <c r="I11" t="n">
-        <v>2000000</v>
+        <v>5500000</v>
       </c>
       <c r="J11" t="n">
-        <v>500000</v>
+        <v>3000000</v>
       </c>
     </row>
     <row r="12">
@@ -876,11 +878,11 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>161</v>
+        <v>156</v>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>Cô tú</t>
+          <t>em bang</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
@@ -891,10 +893,8 @@
       <c r="E12" t="n">
         <v/>
       </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>0939287844</t>
-        </is>
+      <c r="F12" t="n">
+        <v/>
       </c>
       <c r="G12" t="n">
         <v/>
@@ -903,10 +903,10 @@
         <v/>
       </c>
       <c r="I12" t="n">
-        <v>5500000</v>
+        <v>36900000</v>
       </c>
       <c r="J12" t="n">
-        <v>3000000</v>
+        <v>14000000</v>
       </c>
     </row>
     <row r="13">
@@ -916,11 +916,11 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>158</v>
+        <v>79</v>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>Chị Ngoan</t>
+          <t>chị Lợi</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
@@ -941,10 +941,10 @@
         <v/>
       </c>
       <c r="I13" t="n">
-        <v>10000000</v>
+        <v>1500000</v>
       </c>
       <c r="J13" t="n">
-        <v>5000000</v>
+        <v>1500000</v>
       </c>
     </row>
     <row r="14">
@@ -954,11 +954,11 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>157</v>
+        <v>77</v>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>Em Xuyên</t>
+          <t>chị Tiền</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
@@ -979,10 +979,10 @@
         <v/>
       </c>
       <c r="I14" t="n">
+        <v>10000000</v>
+      </c>
+      <c r="J14" t="n">
         <v>5000000</v>
-      </c>
-      <c r="J14" t="n">
-        <v>6000000</v>
       </c>
     </row>
     <row r="15">
@@ -992,11 +992,11 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>156</v>
+        <v>76</v>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>em bang</t>
+          <t>Như Tây</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
@@ -1017,10 +1017,10 @@
         <v/>
       </c>
       <c r="I15" t="n">
-        <v>36900000</v>
+        <v>13000000</v>
       </c>
       <c r="J15" t="n">
-        <v>14000000</v>
+        <v>22000000</v>
       </c>
     </row>
     <row r="16">
@@ -1030,11 +1030,11 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>chị Lợi</t>
+          <t>Chị Xuyến</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
@@ -1055,10 +1055,10 @@
         <v/>
       </c>
       <c r="I16" t="n">
-        <v>1500000</v>
+        <v>1000000</v>
       </c>
       <c r="J16" t="n">
-        <v>1500000</v>
+        <v>3000000</v>
       </c>
     </row>
     <row r="17">
@@ -1068,11 +1068,11 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>chị Tiền</t>
+          <t>em Nhi</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
@@ -1093,10 +1093,10 @@
         <v/>
       </c>
       <c r="I17" t="n">
-        <v>10000000</v>
+        <v>19000000</v>
       </c>
       <c r="J17" t="n">
-        <v>5000000</v>
+        <v>6000000</v>
       </c>
     </row>
     <row r="18">
@@ -1106,11 +1106,11 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>Như Tây</t>
+          <t>Chị Loan</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
@@ -1131,10 +1131,10 @@
         <v/>
       </c>
       <c r="I18" t="n">
-        <v>10000000</v>
+        <v>6000000</v>
       </c>
       <c r="J18" t="n">
-        <v>25000000</v>
+        <v>1000000</v>
       </c>
     </row>
     <row r="19">
@@ -1144,11 +1144,11 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>Chị Xuyến</t>
+          <t>Trúc Thanh</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
@@ -1169,162 +1169,10 @@
         <v/>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>6000000</v>
       </c>
       <c r="J19" t="n">
         <v>4000000</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="inlineStr">
-        <is>
-          <t>KH</t>
-        </is>
-      </c>
-      <c r="B20" t="n">
-        <v>72</v>
-      </c>
-      <c r="C20" t="inlineStr">
-        <is>
-          <t>em Nhi</t>
-        </is>
-      </c>
-      <c r="D20" t="inlineStr">
-        <is>
-          <t>LONG XUYÊN</t>
-        </is>
-      </c>
-      <c r="E20" t="n">
-        <v/>
-      </c>
-      <c r="F20" t="n">
-        <v/>
-      </c>
-      <c r="G20" t="n">
-        <v/>
-      </c>
-      <c r="H20" t="n">
-        <v/>
-      </c>
-      <c r="I20" t="n">
-        <v>12000000</v>
-      </c>
-      <c r="J20" t="n">
-        <v>13000000</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="inlineStr">
-        <is>
-          <t>KH</t>
-        </is>
-      </c>
-      <c r="B21" t="n">
-        <v>71</v>
-      </c>
-      <c r="C21" t="inlineStr">
-        <is>
-          <t>Chị Loan</t>
-        </is>
-      </c>
-      <c r="D21" t="inlineStr">
-        <is>
-          <t>LONG XUYÊN</t>
-        </is>
-      </c>
-      <c r="E21" t="n">
-        <v/>
-      </c>
-      <c r="F21" t="n">
-        <v/>
-      </c>
-      <c r="G21" t="n">
-        <v/>
-      </c>
-      <c r="H21" t="n">
-        <v/>
-      </c>
-      <c r="I21" t="n">
-        <v>6000000</v>
-      </c>
-      <c r="J21" t="n">
-        <v>1000000</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" t="inlineStr">
-        <is>
-          <t>KH</t>
-        </is>
-      </c>
-      <c r="B22" t="n">
-        <v>70</v>
-      </c>
-      <c r="C22" t="inlineStr">
-        <is>
-          <t>Cô Trang</t>
-        </is>
-      </c>
-      <c r="D22" t="inlineStr">
-        <is>
-          <t>LONG XUYÊN</t>
-        </is>
-      </c>
-      <c r="E22" t="n">
-        <v/>
-      </c>
-      <c r="F22" t="n">
-        <v/>
-      </c>
-      <c r="G22" t="n">
-        <v/>
-      </c>
-      <c r="H22" t="n">
-        <v/>
-      </c>
-      <c r="I22" t="n">
-        <v>1000000</v>
-      </c>
-      <c r="J22" t="n">
-        <v>3000000</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" t="inlineStr">
-        <is>
-          <t>KH</t>
-        </is>
-      </c>
-      <c r="B23" t="n">
-        <v>68</v>
-      </c>
-      <c r="C23" t="inlineStr">
-        <is>
-          <t>Trúc Thanh</t>
-        </is>
-      </c>
-      <c r="D23" t="inlineStr">
-        <is>
-          <t>LONG XUYÊN</t>
-        </is>
-      </c>
-      <c r="E23" t="n">
-        <v/>
-      </c>
-      <c r="F23" t="n">
-        <v/>
-      </c>
-      <c r="G23" t="n">
-        <v/>
-      </c>
-      <c r="H23" t="n">
-        <v/>
-      </c>
-      <c r="I23" t="n">
-        <v>5000000</v>
-      </c>
-      <c r="J23" t="n">
-        <v>5000000</v>
       </c>
     </row>
   </sheetData>

--- a/Báo cáo/2_LONG XUYÊN/Danh sách khách hàng/Danh sách khách hàng còn dư nợ tại LONG XUYÊN.xlsx
+++ b/Báo cáo/2_LONG XUYÊN/Danh sách khách hàng/Danh sách khách hàng còn dư nợ tại LONG XUYÊN.xlsx
@@ -547,10 +547,10 @@
         <v/>
       </c>
       <c r="I3" t="n">
-        <v>20000000</v>
+        <v>40000000</v>
       </c>
       <c r="J3" t="n">
-        <v>40500000</v>
+        <v>20500000</v>
       </c>
     </row>
     <row r="4">

--- a/Báo cáo/2_LONG XUYÊN/Danh sách khách hàng/Danh sách khách hàng còn dư nợ tại LONG XUYÊN.xlsx
+++ b/Báo cáo/2_LONG XUYÊN/Danh sách khách hàng/Danh sách khách hàng còn dư nợ tại LONG XUYÊN.xlsx
@@ -550,7 +550,7 @@
         <v>40000000</v>
       </c>
       <c r="J3" t="n">
-        <v>20500000</v>
+        <v>26500000</v>
       </c>
     </row>
     <row r="4">

--- a/Báo cáo/2_LONG XUYÊN/Danh sách khách hàng/Danh sách khách hàng còn dư nợ tại LONG XUYÊN.xlsx
+++ b/Báo cáo/2_LONG XUYÊN/Danh sách khách hàng/Danh sách khách hàng còn dư nợ tại LONG XUYÊN.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J19"/>
+  <dimension ref="A1:J20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -480,11 +480,11 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>432</v>
+        <v>443</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Ngọc diễm</t>
+          <t>Cầm dương</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -497,7 +497,7 @@
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>0989211191</t>
+          <t>0364580162</t>
         </is>
       </c>
       <c r="G2" t="n">
@@ -507,10 +507,10 @@
         <v/>
       </c>
       <c r="I2" t="n">
-        <v>3000000</v>
+        <v>2000000</v>
       </c>
       <c r="J2" t="n">
-        <v>3000000</v>
+        <v>12000000</v>
       </c>
     </row>
     <row r="3">
@@ -520,11 +520,11 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>426</v>
+        <v>432</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Trương thị kiều</t>
+          <t>Ngọc diễm</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -537,7 +537,7 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>0868375152</t>
+          <t>0989211191</t>
         </is>
       </c>
       <c r="G3" t="n">
@@ -547,10 +547,10 @@
         <v/>
       </c>
       <c r="I3" t="n">
-        <v>40000000</v>
+        <v>3000000</v>
       </c>
       <c r="J3" t="n">
-        <v>26500000</v>
+        <v>3000000</v>
       </c>
     </row>
     <row r="4">
@@ -560,11 +560,11 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>340</v>
+        <v>426</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Huỳnh thị bé sáu</t>
+          <t>Trương thị kiều</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -577,7 +577,7 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>0912122976</t>
+          <t>0868375152</t>
         </is>
       </c>
       <c r="G4" t="n">
@@ -587,10 +587,10 @@
         <v/>
       </c>
       <c r="I4" t="n">
-        <v>9000000</v>
+        <v>40000000</v>
       </c>
       <c r="J4" t="n">
-        <v>2500000</v>
+        <v>26500000</v>
       </c>
     </row>
     <row r="5">
@@ -600,11 +600,11 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>291</v>
+        <v>340</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Mai thị nương</t>
+          <t>Huỳnh thị bé sáu</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
@@ -617,7 +617,7 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>0975352074</t>
+          <t>0912122976</t>
         </is>
       </c>
       <c r="G5" t="n">
@@ -627,10 +627,10 @@
         <v/>
       </c>
       <c r="I5" t="n">
-        <v>1500000</v>
+        <v>9000000</v>
       </c>
       <c r="J5" t="n">
-        <v>1500000</v>
+        <v>2500000</v>
       </c>
     </row>
     <row r="6">
@@ -640,11 +640,11 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>269</v>
+        <v>291</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Võ thị nga</t>
+          <t>Mai thị nương</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
@@ -657,7 +657,7 @@
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>0768862580</t>
+          <t>0975352074</t>
         </is>
       </c>
       <c r="G6" t="n">
@@ -667,10 +667,10 @@
         <v/>
       </c>
       <c r="I6" t="n">
-        <v>7000000</v>
+        <v>1500000</v>
       </c>
       <c r="J6" t="n">
-        <v>500000</v>
+        <v>1500000</v>
       </c>
     </row>
     <row r="7">
@@ -680,11 +680,11 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>244</v>
+        <v>269</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Em gấm</t>
+          <t>Võ thị nga</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
@@ -697,7 +697,7 @@
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>0764666615</t>
+          <t>0768862580</t>
         </is>
       </c>
       <c r="G7" t="n">
@@ -707,10 +707,10 @@
         <v/>
       </c>
       <c r="I7" t="n">
-        <v>18000000</v>
+        <v>7000000</v>
       </c>
       <c r="J7" t="n">
-        <v>7000000</v>
+        <v>500000</v>
       </c>
     </row>
     <row r="8">
@@ -720,11 +720,11 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>212</v>
+        <v>244</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Hồ thị Kim thoa</t>
+          <t>Em gấm</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
@@ -737,7 +737,7 @@
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>0964414150</t>
+          <t>0764666615</t>
         </is>
       </c>
       <c r="G8" t="n">
@@ -747,10 +747,10 @@
         <v/>
       </c>
       <c r="I8" t="n">
-        <v>8000000</v>
+        <v>18000000</v>
       </c>
       <c r="J8" t="n">
-        <v>17000000</v>
+        <v>7000000</v>
       </c>
     </row>
     <row r="9">
@@ -760,11 +760,11 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Chị diễm</t>
+          <t>Hồ thị Kim thoa</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
@@ -777,7 +777,7 @@
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>0918665056</t>
+          <t>0964414150</t>
         </is>
       </c>
       <c r="G9" t="n">
@@ -787,10 +787,10 @@
         <v/>
       </c>
       <c r="I9" t="n">
-        <v>1800000</v>
+        <v>8000000</v>
       </c>
       <c r="J9" t="n">
-        <v>500000</v>
+        <v>17000000</v>
       </c>
     </row>
     <row r="10">
@@ -800,11 +800,11 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>164</v>
+        <v>211</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Cô phương</t>
+          <t>Chị diễm</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
@@ -815,8 +815,10 @@
       <c r="E10" t="n">
         <v/>
       </c>
-      <c r="F10" t="n">
-        <v/>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>0918665056</t>
+        </is>
       </c>
       <c r="G10" t="n">
         <v/>
@@ -825,7 +827,7 @@
         <v/>
       </c>
       <c r="I10" t="n">
-        <v>2000000</v>
+        <v>1800000</v>
       </c>
       <c r="J10" t="n">
         <v>500000</v>
@@ -838,11 +840,11 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Cô tú</t>
+          <t>Cô phương</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
@@ -853,10 +855,8 @@
       <c r="E11" t="n">
         <v/>
       </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>0939287844</t>
-        </is>
+      <c r="F11" t="n">
+        <v/>
       </c>
       <c r="G11" t="n">
         <v/>
@@ -865,10 +865,10 @@
         <v/>
       </c>
       <c r="I11" t="n">
-        <v>5500000</v>
+        <v>2000000</v>
       </c>
       <c r="J11" t="n">
-        <v>3000000</v>
+        <v>500000</v>
       </c>
     </row>
     <row r="12">
@@ -878,11 +878,11 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>156</v>
+        <v>161</v>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>em bang</t>
+          <t>Cô tú</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
@@ -893,8 +893,10 @@
       <c r="E12" t="n">
         <v/>
       </c>
-      <c r="F12" t="n">
-        <v/>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>0939287844</t>
+        </is>
       </c>
       <c r="G12" t="n">
         <v/>
@@ -903,10 +905,10 @@
         <v/>
       </c>
       <c r="I12" t="n">
-        <v>36900000</v>
+        <v>5500000</v>
       </c>
       <c r="J12" t="n">
-        <v>14000000</v>
+        <v>3000000</v>
       </c>
     </row>
     <row r="13">
@@ -916,11 +918,11 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>79</v>
+        <v>156</v>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>chị Lợi</t>
+          <t>em bang</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
@@ -941,10 +943,10 @@
         <v/>
       </c>
       <c r="I13" t="n">
-        <v>1500000</v>
+        <v>36900000</v>
       </c>
       <c r="J13" t="n">
-        <v>1500000</v>
+        <v>14000000</v>
       </c>
     </row>
     <row r="14">
@@ -954,11 +956,11 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>chị Tiền</t>
+          <t>chị Lợi</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
@@ -979,10 +981,10 @@
         <v/>
       </c>
       <c r="I14" t="n">
-        <v>10000000</v>
+        <v>1500000</v>
       </c>
       <c r="J14" t="n">
-        <v>5000000</v>
+        <v>1500000</v>
       </c>
     </row>
     <row r="15">
@@ -992,11 +994,11 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>Như Tây</t>
+          <t>chị Tiền</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
@@ -1017,10 +1019,10 @@
         <v/>
       </c>
       <c r="I15" t="n">
-        <v>13000000</v>
+        <v>10000000</v>
       </c>
       <c r="J15" t="n">
-        <v>22000000</v>
+        <v>5000000</v>
       </c>
     </row>
     <row r="16">
@@ -1030,11 +1032,11 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>Chị Xuyến</t>
+          <t>Như Tây</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
@@ -1055,10 +1057,10 @@
         <v/>
       </c>
       <c r="I16" t="n">
-        <v>1000000</v>
+        <v>13000000</v>
       </c>
       <c r="J16" t="n">
-        <v>3000000</v>
+        <v>22000000</v>
       </c>
     </row>
     <row r="17">
@@ -1068,11 +1070,11 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>em Nhi</t>
+          <t>Chị Xuyến</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
@@ -1093,10 +1095,10 @@
         <v/>
       </c>
       <c r="I17" t="n">
-        <v>19000000</v>
+        <v>1000000</v>
       </c>
       <c r="J17" t="n">
-        <v>6000000</v>
+        <v>3000000</v>
       </c>
     </row>
     <row r="18">
@@ -1106,11 +1108,11 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>Chị Loan</t>
+          <t>em Nhi</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
@@ -1131,10 +1133,10 @@
         <v/>
       </c>
       <c r="I18" t="n">
+        <v>19000000</v>
+      </c>
+      <c r="J18" t="n">
         <v>6000000</v>
-      </c>
-      <c r="J18" t="n">
-        <v>1000000</v>
       </c>
     </row>
     <row r="19">
@@ -1144,11 +1146,11 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>Trúc Thanh</t>
+          <t>Chị Loan</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
@@ -1172,6 +1174,44 @@
         <v>6000000</v>
       </c>
       <c r="J19" t="n">
+        <v>1000000</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>KH</t>
+        </is>
+      </c>
+      <c r="B20" t="n">
+        <v>68</v>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>Trúc Thanh</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>LONG XUYÊN</t>
+        </is>
+      </c>
+      <c r="E20" t="n">
+        <v/>
+      </c>
+      <c r="F20" t="n">
+        <v/>
+      </c>
+      <c r="G20" t="n">
+        <v/>
+      </c>
+      <c r="H20" t="n">
+        <v/>
+      </c>
+      <c r="I20" t="n">
+        <v>6000000</v>
+      </c>
+      <c r="J20" t="n">
         <v>4000000</v>
       </c>
     </row>
